--- a/biology/Botanique/Cordia/Cordia.xlsx
+++ b/biology/Botanique/Cordia/Cordia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordia est un genre d'arbustes et d'arbres de la famille des Cordiaceae selon la classification phylogénétique APG IV (2016)[1] (anciennement inclus dans les Boraginaceae). Environ 300 espèces ont été identifiées dans le monde entier, principalement dans les régions  chaudes. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordia est un genre d'arbustes et d'arbres de la famille des Cordiaceae selon la classification phylogénétique APG IV (2016) (anciennement inclus dans les Boraginaceae). Environ 300 espèces ont été identifiées dans le monde entier, principalement dans les régions  chaudes. 
 Beaucoup de Cordias ont des fleurs odorantes voyantes et sont très prisées dans les jardins, même s'ils ne sont pas particulièrement rustiques. Comme la plupart des Boraginaceae, la plupart ont des feuilles poilues.
-À la suite d'études de biologie moléculaire, environ 100 espèces du genre Cordia, originaires des Amériques tropicales et tempérées chaudes (de l'Arizona à l'Argentine), ont été réattribuées au genre Varronia P. Browne[2],[3],[4].
+À la suite d'études de biologie moléculaire, environ 100 espèces du genre Cordia, originaires des Amériques tropicales et tempérées chaudes (de l'Arizona à l'Argentine), ont été réattribuées au genre Varronia P. Browne.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Cordia a été attribué par Carl von Linné en l'honneur du médecin et botaniste allemand Valerius Cordus.
 </t>
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont utilisées comme nourriture par les larves de certains lépidoptères, comme  Endoclita malabaricus et deux Bucculatricidae se nourrissent uniquement de Cordia: Bucculatrix caribbea et Bucculatrix cordiaella.
 Un certain nombre d'espèces tropicales ont des fruits comestibles, connus sous une grande variété de noms anglophones: clammy cherries, glue berries, sebesten ou snotty gobbles. En Inde, les fruits des espèces locales sont utilisés comme légumes, crus, cuits ou marinés, et sont connus sous plusieurs noms dont lasora en hindi. Une de ces espèces, Cordia dichotoma  est appelée Gunda ou Tenti dela  en hindi et lasura en népalais. Son fruit est appelé phoa-po-chi (破布子), 樹子仔, ou 樹子 à Taiwan où il est mangé mariné.
@@ -577,10 +593,48 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[5] :
-Espèces valides
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cordia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cordia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cordia aberrans I.M.Johnst.
 Cordia acunae (Moldenke) Alain
 Cordia acuta Pittier
@@ -986,7 +1040,43 @@
 Cordia williamsii G.Agostini ex Gaviria
 Cordia wurdackiana Feuillet
 Cordia yombomba Vaupel
-Noms non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cordia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cordia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms non résolus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cordia alnifolia Hornem.
 Cordia ayacuchensis Killip
 Cordia berteroi Spreng. ex Griseb.
